--- a/aggregate_info/aggregate_info_6.xlsx
+++ b/aggregate_info/aggregate_info_6.xlsx
@@ -672,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,6 +897,2958 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Открытие клуба дизайна DesArm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30 Октября</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Встреча</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Финал 1 раунда битвы мегафакультетов &amp;quot;ITMO.Megabattle&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30 Ноября</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Гала-концерт</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Выездной лагерь МФФ в рамках &amp;quot;ITMO.Megabattle&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29 Сентября - 30 Сентября</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Финал первого раунда битвы мегафакультетов «ITMO.Megabattle»</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29 Ноября</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>День открытых дверей Университета ИТМО для поступающих в бакалавриат</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28 Января</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Олимпиада ОММО 2021</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28 Февраля</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Олимпиада</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Митап студенческих клубов &amp;quot;Hey, clubs!&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28 Октября</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Митап</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Выезд студенческого актива 2022</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28 Мая - 29 Мая</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>VK Fest-2018</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28 Июля - 29 Июля</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Форт ИТМО</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28 Апреля</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Воркшоп по работе в Photoshop &amp;quot;Высокий стиль&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27 Октября</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Воркшоп</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Мастер-класс клуба DesArm &amp;quot;Основы Figma: создай свою первую социальную сеть первый интерфейс своей социальной сети&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27 Ноября</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Отвальная в Ягодном</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27 Августа - 28 Августа</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Праздник</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle Раунд 2 (2022)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>26 Февраля - 31 Мая</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Волонтер, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Мастер-класс клуба DesArm «Как стать моушн-дизайнером?»</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26 Марта</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>III Форум научных коммуникаторов</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26 Июня - 28 Июня</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Форум</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Неделя цифровой гуманитаристики в Петербурге SPB DHweek 2021</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25 Января - 29 Января</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Молодежная неделя</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Квест-игра &amp;quot;Fotonics Horror Story&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25 Сентября</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Посвящение ФИТиП 2022</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25 Сентября</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Квест-детектив &amp;quot;Uтечка&amp;quot; для первокурсников</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25 Сентября</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Финал 2 раунда &amp;quot;ITMO.Megabattle&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>24 Мая</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Мастер-класс по созданию масок в Instagram с 3D персонажем в дополненной реальности</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>23 Ноября</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Мастер-классы по различным направлениям от DesArm v2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>23 Марта - 01 Июля</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Мастер-класс клуба DesArm &amp;quot;Нескучный дизайн для соцсетей: как делать визуал, который цепляет&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23 Апреля</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>День открытых дверей МФ Фотоника</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22 Октября</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Мастермайнд с психологом Еленой Косенковой от клуба DesArm</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22 Октября</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Воркшоп</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PhysChem Halloween 2021</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22 Октября</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PPTX Night от клуба DesArm 2022</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22 Декабря</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Вечеринка</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Организатор, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Межфакультетская игра КВН 2019</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22 Апреля</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Мастер-класс &amp;quot;Почему сложно быть дизайнером? Трудности и их преодоление&amp;quot; от Дарины Сабуровой и клуба DesArm</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>22 Апреля</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Мастер-класс по концептуальному и креативному мышлению от клуба DesArm</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>21 Мая</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>День открытых дверей Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21 Апреля</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Мастер-класс клуба DesArm «Сто слоёв бренда»</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20 Ноября</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Экзамен Обучающей школы проекта «Адаптер Университета ИТМО»</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20 Мая</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Экзамен</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Квест-игра &amp;quot;Photonics Horror Story&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19 Сентября</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Выездной лагерь МФ Фотоники в рамках &amp;quot;ITMO.Megabattle&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19 Октября - 20 Октября</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Мастер-класс клуба DesArm «Дизайн мобильных интерфейсов без пальм и мишуры»</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19 Апреля</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>День донора Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>18 Октября - 30 Октября</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Акция</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Волонтер, Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Финал 1 раунда ITMO.Megabattle</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>18 Декабря</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Гала-концерт</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Hult Prize On Campus at ITMO University</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>17 Сентября - 03 Декабря</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Чемпионат</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Спортивные сборы секции чирлидинга &amp;quot;Сheer-Слет&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>17 Июня - 19 Июня</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Слет</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Выезд мегафакультета трансляционных информационных технологий в УСОЦ «Ягодное» в рамках проекта ITMO.Megabattle</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16 Октября - 17 Октября</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Посвящение в студенты первокурсников факультета СУиР &amp;quot;СУиРНОВАНИЯ&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16 Октября</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Мастер-класс клуба DesArm «Основы UX при создании digital-продукта»</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>16 Апреля</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Проект &amp;quot;ITMO.STEP&amp;quot;. Осень 2018</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15 Октября - 19 Ноября</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>региональный</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Курс дизайна Александры Заворовской</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>15 Марта - 19 Мая</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Курс</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Проект &amp;quot;ITMO.STEP&amp;quot;. Осень 2019</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>14 Октября - 18 Ноября</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Экскурсия в коммуникационное агентство SETTERS с клубом DesArm</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14 Октября</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Экскурсия</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Презентация журнала «10 лет с NewTone»</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>14 Мая</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Торжества</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Выезд клуба фанатов Валерия Меладзе ITMeladze в УСОЦ Ягодное</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13 Февраля - 14 Февраля</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Вечеринка</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Летник ИТМО.Панчлайна</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13 Августа - 19 Августа</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>VIII МЕЖДУНАРОДНАЯ КОНФЕРЕНЦИЯ WUD@ITMO</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>12 Ноября</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle Раунд 1 (2021)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11 Сентября - 12 Декабря</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Образовательный форум «Тебе решать!» для участников олимпиады «Я-профессионал»</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11 Мая - 15 Мая</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Форум</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Проект &amp;quot;ITMO.STEP&amp;quot;. Весна 2019</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11 Марта - 15 Апреля</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>региональный</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Выставка «Staying with trouble»</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>11 Марта - 04 Апреля</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Выставка</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Мастер-класс клуба DesArm «Основы полиграфии или как подготовить макет к к печати»</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11 Декабря</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Главный организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Выезд Мегафакультета Фотоника в УСОЦ &amp;quot;Ягодное&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10 Октября - 11 Октября</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Интенсивы по различным направлениям от DesArm</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>10 Ноября - 31 Декабря</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Вебинар</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Интенсив по типографике клуба DesArm </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10 Декабря - 12 Декабря</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Вебинар</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Главный организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Выезд мегафакультета биотехнологий и низкотемпературных систем и мегафакультета наук о жизни в УСОЦ «Ягодное» в рамках проекта ITMO.Megabattle</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>09 Октября - 10 Октября</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PowerPoint Night клуба DesArm</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>09 Декабря</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Вечеринка</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Международный конкурс инновационных проектов &amp;quot;Потенциал Будущего&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>09 Апреля - 12 Апреля</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Мастер-класс клуба DesArm «Фирменный стиль и создание мерча»</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>08 Октября</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle Minecraft Event 4.0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>07 Марта - 23 Марта</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Игра</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Праздник выпускника «ITMO.Live-2018»</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>07 Июля</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Праздник</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle Minecraft Event 3.0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>06 Марта - 17 Марта</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Игра</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Интенсив по UI/UX «Как делать интерфейсы для людей?»</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>06 Марта</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Лекция</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Выпускной в Университете ИТМО «ИТМО.Live-2019»</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>06 Июля</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Торжества</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Конкурс на Повышенную государственную академическую стипендию Весенний семестр 2019</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>05 Февраля - 25 Февраля</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Обучающая школа проекта “Адаптер Университета ИТМО”, весна 2018</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>05 Марта - 13 Мая</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Школа</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мастер-класс клуба DesArm «Фирменный стиль и создание мерча от А до Я» </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>05 Декабря</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Выезд студенческого актива 2023</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>03 Июня - 04 Июня</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Выпускной Университета ИТМО «ИТМО.Live-2021»</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>03 Июля</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Торжества</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Весенний выезд актива мегафакультета фотоники в УСОЦ &amp;quot;Ягодное&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>03 Апреля - 04 Апреля</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Мастер-классы по различным направлениям от DesArm</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>02 Ноября - 31 Декабря</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Всероссийский форум «Актуальные вопросы развития студенческого спорта»</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>02 Декабря - 05 Декабря</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Форум</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Освещение культурно-творческих событий Университета ИТМО 2021 год</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>01 Января - 31 Декабря</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Освещение культурно-творческих событий Университета ИТМО 2022 год</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>01 Января - 31 Декабря</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Интенсивы по различным направлениям от DesArm v2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>01 Марта - 01 Июня</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Воркшоп</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Конкурс инициатив для университета «ITMO.Future»</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>01 Июня - 20 Декабря</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle TV-show</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>01 Июня - 07 Июня</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
